--- a/Resultados_final.xlsx
+++ b/Resultados_final.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\OneDrive\Documentos\Maestria\Primer Semestre\Análisis de Algoritmos\Taller 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a76e7a69041390e/Documentos/Maestria/Primer Semestre/Análisis de Algoritmos/Taller 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDDEC85-B02F-4011-B6FC-B2B2BD2CDE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{DBDDEC85-B02F-4011-B6FC-B2B2BD2CDE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8441FF45-7AB9-4C17-A84B-1DB52D8CB30F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="30">
   <si>
     <t>Media</t>
   </si>
@@ -83,6 +96,33 @@
   </si>
   <si>
     <t>Pruebas para comparación con solo un grafo</t>
+  </si>
+  <si>
+    <t>Tiempo ejecución</t>
+  </si>
+  <si>
+    <t>Tamaño solución</t>
+  </si>
+  <si>
+    <t>Pruebas para grafos de 10000 vertices y 3000 aristas</t>
+  </si>
+  <si>
+    <t>2938.13</t>
+  </si>
+  <si>
+    <t>0.084</t>
+  </si>
+  <si>
+    <t>0.1477</t>
+  </si>
+  <si>
+    <t>1438.75</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.083</t>
   </si>
 </sst>
 </file>
@@ -119,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -188,11 +228,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -206,12 +330,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -221,19 +354,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,13 +705,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="11.453125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="18.90625" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" customWidth="1"/>
+    <col min="9" max="9" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
@@ -600,147 +774,147 @@
       <c r="AX1" s="5"/>
     </row>
     <row r="2" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12" t="s">
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12" t="s">
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12" t="s">
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="7" t="s">
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="7"/>
-      <c r="AV2" s="7"/>
-      <c r="AW2" s="7"/>
-      <c r="AX2" s="7"/>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="11"/>
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="B3" s="10"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7" t="s">
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7" t="s">
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7" t="s">
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7" t="s">
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7" t="s">
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7" t="s">
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7" t="s">
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="7"/>
-      <c r="AP3" s="7"/>
-      <c r="AQ3" s="7" t="s">
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AR3" s="7"/>
-      <c r="AS3" s="7"/>
-      <c r="AT3" s="7"/>
-      <c r="AU3" s="7" t="s">
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AV3" s="7"/>
-      <c r="AW3" s="7"/>
-      <c r="AX3" s="7"/>
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="11"/>
     </row>
     <row r="4" spans="1:50" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="11"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1482,97 +1656,186 @@
         <v>849</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="1:50" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:50" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+    </row>
+    <row r="14" spans="1:50" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="B15" s="29"/>
+      <c r="C15" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>3758</v>
       </c>
+      <c r="E16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3784</v>
+      </c>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="24" t="s">
         <v>5</v>
       </c>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4440</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="2">
+        <v>4481</v>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="24" t="s">
         <v>6</v>
       </c>
+      <c r="C18" s="25">
+        <v>2395</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2009</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2008</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="33"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="7" t="s">
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2316</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2299</v>
+      </c>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F23" s="35"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B25" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14" t="s">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14" t="s">
+      <c r="F26" s="9"/>
+      <c r="G26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14" t="s">
+      <c r="H26" s="9"/>
+      <c r="I26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14" t="s">
+      <c r="J26" s="9"/>
+      <c r="K26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14" t="s">
+      <c r="L26" s="9"/>
+      <c r="M26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N26" s="14"/>
+      <c r="N26" s="9"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="2">
@@ -1613,7 +1876,7 @@
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="2">
@@ -1654,7 +1917,7 @@
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="2">
@@ -1695,7 +1958,7 @@
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="2">
@@ -1736,20 +1999,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="S2:Z2"/>
-    <mergeCell ref="AA2:AH2"/>
-    <mergeCell ref="AI2:AP2"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B25:N25"/>
+  <mergeCells count="29">
     <mergeCell ref="AQ2:AX2"/>
-    <mergeCell ref="B10:D12"/>
     <mergeCell ref="AQ3:AT3"/>
     <mergeCell ref="AU3:AX3"/>
     <mergeCell ref="C3:F3"/>
@@ -1764,6 +2015,20 @@
     <mergeCell ref="AI3:AL3"/>
     <mergeCell ref="AM3:AP3"/>
     <mergeCell ref="C2:J2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="S2:Z2"/>
+    <mergeCell ref="AA2:AH2"/>
+    <mergeCell ref="AI2:AP2"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B25:N25"/>
+    <mergeCell ref="B10:D12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Resultados_final.xlsx
+++ b/Resultados_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a76e7a69041390e/Documentos/Maestria/Primer Semestre/Análisis de Algoritmos/Taller 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{DBDDEC85-B02F-4011-B6FC-B2B2BD2CDE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8441FF45-7AB9-4C17-A84B-1DB52D8CB30F}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{DBDDEC85-B02F-4011-B6FC-B2B2BD2CDE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50D5FCB7-A11B-4EF5-AA49-09638CF1A5D1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="34">
   <si>
     <t>Media</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>0.083</t>
+  </si>
+  <si>
+    <t>0.1433</t>
+  </si>
+  <si>
+    <t>1410.35</t>
+  </si>
+  <si>
+    <t>0.2441</t>
+  </si>
+  <si>
+    <t>0.086</t>
   </si>
 </sst>
 </file>
@@ -316,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -336,51 +348,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -389,18 +356,62 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,6 +427,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -703,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX30"/>
+  <dimension ref="A1:AX31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -716,8 +731,8 @@
     <col min="4" max="4" width="20.453125" customWidth="1"/>
     <col min="5" max="5" width="18.90625" customWidth="1"/>
     <col min="6" max="6" width="16.81640625" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -774,147 +789,147 @@
       <c r="AX1" s="5"/>
     </row>
     <row r="2" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10" t="s">
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10" t="s">
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10" t="s">
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="11" t="s">
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="B3" s="13"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11" t="s">
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11" t="s">
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11" t="s">
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11" t="s">
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11" t="s">
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11" t="s">
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="11" t="s">
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="11" t="s">
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="AR3" s="11"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11"/>
-      <c r="AU3" s="11" t="s">
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AV3" s="11"/>
-      <c r="AW3" s="11"/>
-      <c r="AX3" s="11"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
     </row>
     <row r="4" spans="1:50" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="14"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1657,358 +1672,384 @@
       </c>
     </row>
     <row r="10" spans="1:50" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:50" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-    </row>
-    <row r="14" spans="1:50" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="29" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="1:50" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+    </row>
+    <row r="15" spans="1:50" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C15" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="26"/>
-    </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="B15" s="29"/>
-      <c r="C15" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>22</v>
-      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
       <c r="G15" s="30"/>
       <c r="H15" s="30"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="2">
         <v>3758</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F17" s="2">
         <v>3784</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B17" s="24" t="s">
+      <c r="G17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="2">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="2">
         <v>4440</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F18" s="2">
         <v>4481</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B18" s="24" t="s">
+      <c r="G18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="2">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B19" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C19" s="10">
         <v>2395</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="2">
         <v>2009</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F19" s="2">
         <v>2008</v>
       </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="33"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B19" s="24" t="s">
+      <c r="G19" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="10">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D20" s="2">
         <v>2316</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F20" s="2">
         <v>2299</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="F23" s="35"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B25" s="11" t="s">
+      <c r="G20" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F24" s="13"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B26" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B27" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C27" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9" t="s">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9" t="s">
+      <c r="F27" s="19"/>
+      <c r="G27" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9" t="s">
+      <c r="H27" s="19"/>
+      <c r="I27" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9" t="s">
+      <c r="J27" s="19"/>
+      <c r="K27" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9" t="s">
+      <c r="L27" s="19"/>
+      <c r="M27" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="N26" s="9"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B27" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="2">
-        <v>88</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1.0056495666503911E-3</v>
-      </c>
-      <c r="E27" s="2">
-        <v>92</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>96</v>
-      </c>
-      <c r="H27" s="2">
-        <v>1.008272171020508E-3</v>
-      </c>
-      <c r="I27" s="2">
-        <v>610</v>
-      </c>
-      <c r="J27" s="2">
-        <v>7.9991817474365234E-3</v>
-      </c>
-      <c r="K27" s="2">
-        <v>710</v>
-      </c>
-      <c r="L27" s="2">
-        <v>2.16069221496582E-2</v>
-      </c>
-      <c r="M27" s="2">
-        <v>804</v>
-      </c>
-      <c r="N27" s="2">
-        <v>2.9676437377929691E-2</v>
-      </c>
+      <c r="N27" s="19"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B28" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="2">
-        <v>1.2010812759399411E-2</v>
+        <v>1.0056495666503911E-3</v>
       </c>
       <c r="E28" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F28" s="2">
-        <v>1.099371910095215E-2</v>
+        <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H28" s="2">
-        <v>8.0296993255615234E-3</v>
+        <v>1.008272171020508E-3</v>
       </c>
       <c r="I28" s="2">
-        <v>733</v>
+        <v>610</v>
       </c>
       <c r="J28" s="2">
-        <v>4.5169553756713867</v>
+        <v>7.9991817474365234E-3</v>
       </c>
       <c r="K28" s="2">
-        <v>817</v>
+        <v>710</v>
       </c>
       <c r="L28" s="2">
-        <v>4.6302993297576904</v>
+        <v>2.16069221496582E-2</v>
       </c>
       <c r="M28" s="2">
-        <v>872</v>
+        <v>804</v>
       </c>
       <c r="N28" s="2">
-        <v>4.7317337989807129</v>
+        <v>2.9676437377929691E-2</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B29" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="D29" s="2">
-        <v>1.505851745605469E-3</v>
+        <v>1.2010812759399411E-2</v>
       </c>
       <c r="E29" s="2">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="F29" s="2">
-        <v>1.9998550415039058E-3</v>
+        <v>1.099371910095215E-2</v>
       </c>
       <c r="G29" s="2">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H29" s="2">
-        <v>1.0011196136474609E-3</v>
+        <v>8.0296993255615234E-3</v>
       </c>
       <c r="I29" s="2">
-        <v>383</v>
+        <v>733</v>
       </c>
       <c r="J29" s="2">
-        <v>1.7922878265380859E-2</v>
+        <v>4.5169553756713867</v>
       </c>
       <c r="K29" s="2">
-        <v>468</v>
+        <v>817</v>
       </c>
       <c r="L29" s="2">
-        <v>3.0069828033447269E-2</v>
+        <v>4.6302993297576904</v>
       </c>
       <c r="M29" s="2">
-        <v>590</v>
+        <v>872</v>
       </c>
       <c r="N29" s="2">
-        <v>4.0013790130615227E-2</v>
+        <v>4.7317337989807129</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="2">
+        <v>66</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1.505851745605469E-3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>76</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1.9998550415039058E-3</v>
+      </c>
+      <c r="G30" s="2">
+        <v>85</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1.0011196136474609E-3</v>
+      </c>
+      <c r="I30" s="2">
+        <v>383</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1.7922878265380859E-2</v>
+      </c>
+      <c r="K30" s="2">
+        <v>468</v>
+      </c>
+      <c r="L30" s="2">
+        <v>3.0069828033447269E-2</v>
+      </c>
+      <c r="M30" s="2">
+        <v>590</v>
+      </c>
+      <c r="N30" s="2">
+        <v>4.0013790130615227E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B31" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C31" s="2">
         <v>97</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D31" s="2">
         <v>1.0890960693359379E-3</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E31" s="2">
         <v>100</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F31" s="2">
         <v>2.0389556884765621E-3</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G31" s="2">
         <v>100</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H31" s="2">
         <v>5.0292015075683594E-3</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I31" s="2">
         <v>562</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J31" s="2">
         <v>5.0001144409179688E-3</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K31" s="2">
         <v>702</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L31" s="2">
         <v>1.8926858901977539E-2</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M31" s="2">
         <v>871</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N31" s="2">
         <v>3.3178329467773438E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="AQ2:AX2"/>
-    <mergeCell ref="AQ3:AT3"/>
-    <mergeCell ref="AU3:AX3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B26:N26"/>
+    <mergeCell ref="B10:D12"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="AA3:AD3"/>
     <mergeCell ref="AE3:AH3"/>
@@ -2019,16 +2060,15 @@
     <mergeCell ref="S2:Z2"/>
     <mergeCell ref="AA2:AH2"/>
     <mergeCell ref="AI2:AP2"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B25:N25"/>
-    <mergeCell ref="B10:D12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="AQ2:AX2"/>
+    <mergeCell ref="AQ3:AT3"/>
+    <mergeCell ref="AU3:AX3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Resultados_final.xlsx
+++ b/Resultados_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a76e7a69041390e/Documentos/Maestria/Primer Semestre/Análisis de Algoritmos/Taller 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{DBDDEC85-B02F-4011-B6FC-B2B2BD2CDE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50D5FCB7-A11B-4EF5-AA49-09638CF1A5D1}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="13_ncr:1_{DBDDEC85-B02F-4011-B6FC-B2B2BD2CDE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB09A6B2-DCC6-42B0-8AC5-B177682363E1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="41">
   <si>
     <t>Media</t>
   </si>
@@ -135,6 +135,27 @@
   </si>
   <si>
     <t>0.086</t>
+  </si>
+  <si>
+    <t>V=10000, E=5000</t>
+  </si>
+  <si>
+    <t>V=10000, E=10000</t>
+  </si>
+  <si>
+    <t>V=10000, E=11000</t>
+  </si>
+  <si>
+    <t>Las próximas pruebas se realizaron sin el algoritmo 2 debido al tiempo de ejecución que toma este, como se ve en la anterior tabla, en donde solo se tenían 3000 aristas</t>
+  </si>
+  <si>
+    <t>Tiempo Ejecución</t>
+  </si>
+  <si>
+    <t>Estás últimas pruebas son de comparación con un solo grafo variando las aristas, para grafos con 100 o 1000 vertices</t>
+  </si>
+  <si>
+    <t>V=10000, E=15000</t>
   </si>
 </sst>
 </file>
@@ -171,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -324,11 +345,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -356,10 +401,42 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -372,45 +449,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX31"/>
+  <dimension ref="A1:AX41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="S22" workbookViewId="0">
+      <selection activeCell="AA24" sqref="AA24:AH24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -734,6 +799,7 @@
     <col min="7" max="7" width="15.7265625" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.26953125" customWidth="1"/>
+    <col min="11" max="11" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
@@ -789,147 +855,147 @@
       <c r="AX1" s="5"/>
     </row>
     <row r="2" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18" t="s">
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18" t="s">
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="14" t="s">
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
+      <c r="AQ2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AR2" s="14"/>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="14"/>
-      <c r="AV2" s="14"/>
-      <c r="AW2" s="14"/>
-      <c r="AX2" s="14"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="B3" s="16"/>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14" t="s">
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14" t="s">
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14" t="s">
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14" t="s">
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14" t="s">
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14" t="s">
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14" t="s">
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AN3" s="14"/>
-      <c r="AO3" s="14"/>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14" t="s">
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AR3" s="14"/>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="14" t="s">
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AV3" s="14"/>
-      <c r="AW3" s="14"/>
-      <c r="AX3" s="14"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
     </row>
     <row r="4" spans="1:50" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="17"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1672,43 +1738,43 @@
       </c>
     </row>
     <row r="10" spans="1:50" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:50" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:50" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-    </row>
-    <row r="15" spans="1:50" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="29" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="B15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
       <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="B16" s="29"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="12" t="s">
         <v>21</v>
       </c>
@@ -1730,7 +1796,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B17" s="9" t="s">
         <v>4</v>
       </c>
@@ -1753,7 +1819,7 @@
         <v>3816</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B18" s="9" t="s">
         <v>5</v>
       </c>
@@ -1776,7 +1842,7 @@
         <v>4351</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B19" s="9" t="s">
         <v>6</v>
       </c>
@@ -1792,14 +1858,14 @@
       <c r="F19" s="2">
         <v>2008</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H19" s="10">
         <v>2029</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B20" s="9" t="s">
         <v>7</v>
       </c>
@@ -1815,241 +1881,930 @@
       <c r="F20" s="2">
         <v>2299</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H20" s="2">
         <v>2339</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="F24" s="13"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B26" s="14" t="s">
+    <row r="21" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B22" s="29"/>
+      <c r="C22" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B23" s="29"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B24" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="15"/>
+    </row>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B25" s="34"/>
+      <c r="C25" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="15"/>
+    </row>
+    <row r="26" spans="2:34" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="34"/>
+      <c r="C26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.77087335586547856</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.46067029638020002</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1.710936307907104</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.46232223510742188</v>
+      </c>
+      <c r="G27" s="2">
+        <v>5023.2</v>
+      </c>
+      <c r="H27" s="2">
+        <v>52.438154048364439</v>
+      </c>
+      <c r="I27" s="2">
+        <v>5090</v>
+      </c>
+      <c r="J27" s="2">
+        <v>4928</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1.3810108184814449</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.22175079170212059</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1.831433057785034</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0.9093472957611084</v>
+      </c>
+      <c r="O27" s="2">
+        <v>6632.8</v>
+      </c>
+      <c r="P27" s="2">
+        <v>31.371324485905909</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>6676</v>
+      </c>
+      <c r="R27" s="2">
+        <v>6594</v>
+      </c>
+      <c r="S27" s="2">
+        <v>1.0798636198043821</v>
+      </c>
+      <c r="T27" s="2">
+        <v>4.5742004194661963E-2</v>
+      </c>
+      <c r="U27" s="2">
+        <v>1.171282052993774</v>
+      </c>
+      <c r="V27" s="2">
+        <v>1.006205558776855</v>
+      </c>
+      <c r="W27" s="2">
+        <v>6880</v>
+      </c>
+      <c r="X27" s="2">
+        <v>27.144060123717679</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>6924</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>6836</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>2.0625821828842161</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>0.2235105474868789</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>2.3747222423553471</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>1.7026641368865969</v>
+      </c>
+      <c r="AE27" s="2">
+        <v>7494.2</v>
+      </c>
+      <c r="AF27" s="2">
+        <v>34.16957711181103</v>
+      </c>
+      <c r="AG27" s="2">
+        <v>7552</v>
+      </c>
+      <c r="AH27" s="2">
+        <v>7418</v>
+      </c>
+    </row>
+    <row r="28" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1.2497687816619869</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.79025891132550907</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2.9179284572601318</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.79693603515625</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2855</v>
+      </c>
+      <c r="H28" s="2">
+        <v>19.406184581210191</v>
+      </c>
+      <c r="I28" s="2">
+        <v>2883</v>
+      </c>
+      <c r="J28" s="2">
+        <v>2811</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1.862242245674133</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.2376835698518252</v>
+      </c>
+      <c r="M28" s="2">
+        <v>2.1810603141784668</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1.265254020690918</v>
+      </c>
+      <c r="O28" s="2">
+        <v>4267.1000000000004</v>
+      </c>
+      <c r="P28" s="2">
+        <v>13.87407654584621</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>4291</v>
+      </c>
+      <c r="R28" s="2">
+        <v>4248</v>
+      </c>
+      <c r="S28" s="2">
+        <v>1.4412983179092409</v>
+      </c>
+      <c r="T28" s="2">
+        <v>9.7819242332012599E-2</v>
+      </c>
+      <c r="U28" s="2">
+        <v>1.5613934993743901</v>
+      </c>
+      <c r="V28" s="2">
+        <v>1.227608919143677</v>
+      </c>
+      <c r="W28" s="2">
+        <v>4498.2</v>
+      </c>
+      <c r="X28" s="2">
+        <v>20.595145058969599</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>4536</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>4461</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>2.8227519273757928</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>0.38341022279248932</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>3.419913768768311</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>2.1895112991333008</v>
+      </c>
+      <c r="AE28" s="2">
+        <v>5190.2</v>
+      </c>
+      <c r="AF28" s="2">
+        <v>25.23410390721256</v>
+      </c>
+      <c r="AG28" s="2">
+        <v>5227</v>
+      </c>
+      <c r="AH28" s="2">
+        <v>5149</v>
+      </c>
+    </row>
+    <row r="29" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.19478995800018309</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.1232299910304296</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.45902323722839361</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.12358593940734861</v>
+      </c>
+      <c r="G29" s="2">
+        <v>3936.4</v>
+      </c>
+      <c r="H29" s="2">
+        <v>32.894376419078078</v>
+      </c>
+      <c r="I29" s="2">
+        <v>3974</v>
+      </c>
+      <c r="J29" s="2">
+        <v>3878</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.52024192810058589</v>
+      </c>
+      <c r="L29" s="2">
+        <v>6.5403960576017967E-2</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0.58335614204406738</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0.37411189079284668</v>
+      </c>
+      <c r="O29" s="2">
+        <v>6323.3</v>
+      </c>
+      <c r="P29" s="2">
+        <v>37.683020048823053</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>6378</v>
+      </c>
+      <c r="R29" s="2">
+        <v>6276</v>
+      </c>
+      <c r="S29" s="2">
+        <v>0.46979656219482419</v>
+      </c>
+      <c r="T29" s="2">
+        <v>1.263304947978278E-2</v>
+      </c>
+      <c r="U29" s="2">
+        <v>0.50309562683105469</v>
+      </c>
+      <c r="V29" s="2">
+        <v>0.45929360389709473</v>
+      </c>
+      <c r="W29" s="2">
+        <v>6684.2</v>
+      </c>
+      <c r="X29" s="2">
+        <v>29.4</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>6724</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>6640</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>1.1331610441207891</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>0.15239651574238891</v>
+      </c>
+      <c r="AC29" s="2">
+        <v>1.419044017791748</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>0.91838955879211426</v>
+      </c>
+      <c r="AE29" s="2">
+        <v>7750.5</v>
+      </c>
+      <c r="AF29" s="2">
+        <v>27.397992627198072</v>
+      </c>
+      <c r="AG29" s="2">
+        <v>7807</v>
+      </c>
+      <c r="AH29" s="2">
+        <v>7716</v>
+      </c>
+    </row>
+    <row r="30" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B30" s="37"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+    </row>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B31" s="37"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30"/>
+    </row>
+    <row r="32" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B32" s="37"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="30"/>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B33" s="37"/>
+      <c r="C33" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="30"/>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B35" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B27" s="8" t="s">
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B36" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C36" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19" t="s">
+      <c r="D36" s="14"/>
+      <c r="E36" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19" t="s">
+      <c r="F36" s="14"/>
+      <c r="G36" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19" t="s">
+      <c r="H36" s="14"/>
+      <c r="I36" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19" t="s">
+      <c r="J36" s="14"/>
+      <c r="K36" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19" t="s">
+      <c r="L36" s="14"/>
+      <c r="M36" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N27" s="19"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B28" s="7" t="s">
+      <c r="N36" s="14"/>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B37" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C37" s="2">
         <v>88</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D37" s="2">
         <v>1.0056495666503911E-3</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E37" s="2">
         <v>92</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F37" s="2">
         <v>0</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G37" s="2">
         <v>96</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H37" s="2">
         <v>1.008272171020508E-3</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I37" s="2">
         <v>610</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J37" s="2">
         <v>7.9991817474365234E-3</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K37" s="2">
         <v>710</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L37" s="2">
         <v>2.16069221496582E-2</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M37" s="2">
         <v>804</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N37" s="2">
         <v>2.9676437377929691E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B29" s="7" t="s">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C38" s="2">
         <v>89</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D38" s="2">
         <v>1.2010812759399411E-2</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E38" s="2">
         <v>95</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F38" s="2">
         <v>1.099371910095215E-2</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G38" s="2">
         <v>92</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H38" s="2">
         <v>8.0296993255615234E-3</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I38" s="2">
         <v>733</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J38" s="2">
         <v>4.5169553756713867</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K38" s="2">
         <v>817</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L38" s="2">
         <v>4.6302993297576904</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M38" s="2">
         <v>872</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N38" s="2">
         <v>4.7317337989807129</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B30" s="7" t="s">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B39" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C39" s="2">
         <v>66</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D39" s="2">
         <v>1.505851745605469E-3</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E39" s="2">
         <v>76</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F39" s="2">
         <v>1.9998550415039058E-3</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G39" s="2">
         <v>85</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H39" s="2">
         <v>1.0011196136474609E-3</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I39" s="2">
         <v>383</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J39" s="2">
         <v>1.7922878265380859E-2</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K39" s="2">
         <v>468</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L39" s="2">
         <v>3.0069828033447269E-2</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M39" s="2">
         <v>590</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N39" s="2">
         <v>4.0013790130615227E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B31" s="7" t="s">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B40" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C40" s="2">
         <v>97</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D40" s="2">
         <v>1.0890960693359379E-3</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E40" s="2">
         <v>100</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F40" s="2">
         <v>2.0389556884765621E-3</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G40" s="2">
         <v>100</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H40" s="2">
         <v>5.0292015075683594E-3</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I40" s="2">
         <v>562</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J40" s="2">
         <v>5.0001144409179688E-3</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K40" s="2">
         <v>702</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L40" s="2">
         <v>1.8926858901977539E-2</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M40" s="2">
         <v>871</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N40" s="2">
         <v>3.3178329467773438E-2</v>
       </c>
     </row>
+    <row r="41" spans="2:26" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="C41" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="K41" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="L41" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="M41" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="N41" s="38" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B26:N26"/>
-    <mergeCell ref="B10:D12"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
+  <mergeCells count="45">
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="AA24:AH24"/>
+    <mergeCell ref="AA25:AD25"/>
+    <mergeCell ref="AE25:AH25"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S24:Z24"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="AQ2:AX2"/>
+    <mergeCell ref="AQ3:AT3"/>
+    <mergeCell ref="AU3:AX3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="AA3:AD3"/>
     <mergeCell ref="AE3:AH3"/>
@@ -2060,16 +2815,18 @@
     <mergeCell ref="S2:Z2"/>
     <mergeCell ref="AA2:AH2"/>
     <mergeCell ref="AI2:AP2"/>
-    <mergeCell ref="AQ2:AX2"/>
-    <mergeCell ref="AQ3:AT3"/>
-    <mergeCell ref="AU3:AX3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="B35:N35"/>
+    <mergeCell ref="B10:D12"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>